--- a/季诚/产品测试/长，木红光，金黄光，27B测试6-11.xlsx
+++ b/季诚/产品测试/长，木红光，金黄光，27B测试6-11.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21045" windowHeight="9915"/>
+    <workbookView windowWidth="23040" windowHeight="9612"/>
   </bookViews>
   <sheets>
     <sheet name="6-11" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <t>长方金黄色16-18</t>
   </si>
   <si>
-    <t>长方金黄色18-20</t>
+    <t>cf金黄色18-20</t>
   </si>
   <si>
     <t>木林森金黄色</t>
@@ -72,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -86,10 +86,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -101,17 +102,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,63 +130,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,17 +148,71 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,6 +222,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -239,6 +239,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -251,55 +269,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,115 +389,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,22 +452,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,11 +472,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,20 +504,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,6 +525,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -553,145 +553,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1024,10 +1024,10 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="16.75" customWidth="1"/>
@@ -1068,7 +1068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" hidden="1" spans="1:11">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>194.6</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" hidden="1" spans="1:11">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>197.7</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" hidden="1" spans="1:11">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>196.7</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" hidden="1" spans="1:11">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>196.9</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" hidden="1" spans="1:11">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>197.7</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" hidden="1" spans="1:11">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>196.5</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" hidden="1" spans="1:11">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1291,7 +1291,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" hidden="1" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>192.6</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" hidden="1" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>192.2</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" hidden="1" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>192.7</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" hidden="1" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>192.6</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" hidden="1" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>192.7</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" hidden="1" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>192.4</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" hidden="1" spans="1:11">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1514,7 +1514,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" hidden="1" spans="1:11">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" hidden="1" spans="1:11">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" hidden="1" spans="1:11">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" hidden="1" spans="1:11">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" hidden="1" spans="1:11">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" hidden="1" spans="1:11">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" hidden="1" spans="1:11">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1737,7 +1737,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" hidden="1" spans="1:11">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" hidden="1" spans="1:11">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>71.8</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" hidden="1" spans="1:11">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>71.3</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" hidden="1" spans="1:11">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>70.9</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" hidden="1" spans="1:11">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>69.7</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" hidden="1" spans="1:11">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>69.3</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" hidden="1" spans="1:11">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
